--- a/stcokcode_test.xlsx
+++ b/stcokcode_test.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE8371B-D361-476F-A11A-47B42F29DC87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20060" windowHeight="10460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6102" xr2:uid="{E87E0635-01C5-408C-A496-D47A3DBD829B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Stockcode'</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -44,12 +47,147 @@
   </si>
   <si>
     <t>000100</t>
+  </si>
+  <si>
+    <t>000413</t>
+  </si>
+  <si>
+    <t>000536</t>
+  </si>
+  <si>
+    <t>000561</t>
+  </si>
+  <si>
+    <t>000636</t>
+  </si>
+  <si>
+    <t>000725</t>
+  </si>
+  <si>
+    <t>000727</t>
+  </si>
+  <si>
+    <t>000733</t>
+  </si>
+  <si>
+    <t>000748</t>
+  </si>
+  <si>
+    <t>000823</t>
+  </si>
+  <si>
+    <t>000938</t>
+  </si>
+  <si>
+    <t>000970</t>
+  </si>
+  <si>
+    <t>000977</t>
+  </si>
+  <si>
+    <t>000988</t>
+  </si>
+  <si>
+    <t>002017</t>
+  </si>
+  <si>
+    <t>002025</t>
+  </si>
+  <si>
+    <t>002036</t>
+  </si>
+  <si>
+    <t>002045</t>
+  </si>
+  <si>
+    <t>002049</t>
+  </si>
+  <si>
+    <t>002052</t>
+  </si>
+  <si>
+    <t>002055</t>
+  </si>
+  <si>
+    <t>002079</t>
+  </si>
+  <si>
+    <t>002089</t>
+  </si>
+  <si>
+    <t>002104</t>
+  </si>
+  <si>
+    <t>002106</t>
+  </si>
+  <si>
+    <t>002115</t>
+  </si>
+  <si>
+    <t>002119</t>
+  </si>
+  <si>
+    <t>002130</t>
+  </si>
+  <si>
+    <t>002134</t>
+  </si>
+  <si>
+    <t>002138</t>
+  </si>
+  <si>
+    <t>002151</t>
+  </si>
+  <si>
+    <t>002156</t>
+  </si>
+  <si>
+    <t>002161</t>
+  </si>
+  <si>
+    <t>002179</t>
+  </si>
+  <si>
+    <t>002180</t>
+  </si>
+  <si>
+    <t>002185</t>
+  </si>
+  <si>
+    <t>002189</t>
+  </si>
+  <si>
+    <t>002194</t>
+  </si>
+  <si>
+    <t>002199</t>
+  </si>
+  <si>
+    <t>002214</t>
+  </si>
+  <si>
+    <t>002217</t>
+  </si>
+  <si>
+    <t>002222</t>
+  </si>
+  <si>
+    <t>002231</t>
+  </si>
+  <si>
+    <t>002236</t>
+  </si>
+  <si>
+    <t>002241</t>
+  </si>
+  <si>
+    <t>002273</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -101,8 +239,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{CD5C303B-FD82-4C93-9825-CEB9F160E3E3}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -212,7 +350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -406,64 +544,529 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84369CF-11C3-4ECE-BFE7-3429B7DE96C7}">
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>